--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Admin_approval_switch_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Admin_approval_switch_of.xlsx
@@ -1089,7 +1089,7 @@
         <v>15000001</v>
       </c>
       <c r="C35" t="n">
-        <v>14000040</v>
+        <v>14000039</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>15000001</v>
       </c>
       <c r="C36" t="n">
-        <v>14000041</v>
+        <v>14000040</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>15000001</v>
       </c>
       <c r="C37" t="n">
-        <v>14000042</v>
+        <v>14000041</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>15000001</v>
       </c>
       <c r="C38" t="n">
-        <v>14000044</v>
+        <v>14000043</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>15000001</v>
       </c>
       <c r="C39" t="n">
-        <v>14000045</v>
+        <v>14000044</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>15000001</v>
       </c>
       <c r="C40" t="n">
-        <v>14000046</v>
+        <v>14000045</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>15000001</v>
       </c>
       <c r="C41" t="n">
-        <v>14000047</v>
+        <v>14000046</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>15000001</v>
       </c>
       <c r="C42" t="n">
-        <v>14000048</v>
+        <v>14000047</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>15000001</v>
       </c>
       <c r="C43" t="n">
-        <v>14000050</v>
+        <v>14000049</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>15000001</v>
       </c>
       <c r="C44" t="n">
-        <v>14000052</v>
+        <v>14000051</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>15000001</v>
       </c>
       <c r="C45" t="n">
-        <v>14000053</v>
+        <v>14000052</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>15000001</v>
       </c>
       <c r="C46" t="n">
-        <v>14000055</v>
+        <v>14000054</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>15000001</v>
       </c>
       <c r="C47" t="n">
-        <v>14000056</v>
+        <v>14000055</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>15000001</v>
       </c>
       <c r="C48" t="n">
-        <v>14000057</v>
+        <v>14000056</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>15000001</v>
       </c>
       <c r="C49" t="n">
-        <v>14000058</v>
+        <v>14000057</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>15000001</v>
       </c>
       <c r="C50" t="n">
-        <v>14000059</v>
+        <v>14000058</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>15000001</v>
       </c>
       <c r="C51" t="n">
-        <v>14000060</v>
+        <v>14000059</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>15000001</v>
       </c>
       <c r="C52" t="n">
-        <v>14000061</v>
+        <v>14000060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>15000001</v>
       </c>
       <c r="C53" t="n">
-        <v>14000062</v>
+        <v>14000061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>15000001</v>
       </c>
       <c r="C54" t="n">
-        <v>14000063</v>
+        <v>14000062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>15000001</v>
       </c>
       <c r="C55" t="n">
-        <v>14000064</v>
+        <v>14000063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>15000001</v>
       </c>
       <c r="C56" t="n">
-        <v>14000065</v>
+        <v>14000064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>15000001</v>
       </c>
       <c r="C57" t="n">
-        <v>14000066</v>
+        <v>14000065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>15000001</v>
       </c>
       <c r="C58" t="n">
-        <v>14000067</v>
+        <v>14000066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>15000001</v>
       </c>
       <c r="C59" t="n">
-        <v>14000069</v>
+        <v>14000068</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>15000001</v>
       </c>
       <c r="C60" t="n">
-        <v>14000070</v>
+        <v>14000069</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>15000001</v>
       </c>
       <c r="C61" t="n">
-        <v>14000072</v>
+        <v>14000071</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>15000001</v>
       </c>
       <c r="C62" t="n">
-        <v>14000074</v>
+        <v>14000073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>15000001</v>
       </c>
       <c r="C63" t="n">
-        <v>14000075</v>
+        <v>14000074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>15000001</v>
       </c>
       <c r="C64" t="n">
-        <v>14000076</v>
+        <v>14000075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>15000001</v>
       </c>
       <c r="C65" t="n">
-        <v>14000077</v>
+        <v>14000076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>

--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Admin_approval_switch_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Admin_approval_switch_of.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ITCH00000</t>
+          <t>ITCH00001</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
         <v>15000001</v>
       </c>
       <c r="C35" t="n">
-        <v>14000039</v>
+        <v>14000035</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ITCH00001</t>
+          <t>ITCH00002</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
         <v>15000001</v>
       </c>
       <c r="C36" t="n">
-        <v>14000040</v>
+        <v>14000036</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ITCH00002</t>
+          <t>ITCH00003</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         <v>15000001</v>
       </c>
       <c r="C37" t="n">
-        <v>14000041</v>
+        <v>14000038</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ITCH00003</t>
+          <t>ITCH00004</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
         <v>15000001</v>
       </c>
       <c r="C38" t="n">
-        <v>14000043</v>
+        <v>14000039</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ITCH00004</t>
+          <t>ITCH00005</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
         <v>15000001</v>
       </c>
       <c r="C39" t="n">
-        <v>14000044</v>
+        <v>14000040</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ITCH00005</t>
+          <t>ITCH00006</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>15000001</v>
       </c>
       <c r="C40" t="n">
-        <v>14000045</v>
+        <v>14000041</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ITCH00006</t>
+          <t>ITCH00007</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
         <v>15000001</v>
       </c>
       <c r="C41" t="n">
-        <v>14000046</v>
+        <v>14000042</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ITCH00007</t>
+          <t>ITCH00009</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
         <v>15000001</v>
       </c>
       <c r="C42" t="n">
-        <v>14000047</v>
+        <v>14000044</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ITCH00009</t>
+          <t>ITCH00010</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
         <v>15000001</v>
       </c>
       <c r="C43" t="n">
-        <v>14000049</v>
+        <v>14000046</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ITCH00010</t>
+          <t>ITCH00011</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
         <v>15000001</v>
       </c>
       <c r="C44" t="n">
-        <v>14000051</v>
+        <v>14000047</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ITCH00011</t>
+          <t>ITCH00012</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         <v>15000001</v>
       </c>
       <c r="C45" t="n">
-        <v>14000052</v>
+        <v>14000049</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ITCH00012</t>
+          <t>ITCH00013</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>15000001</v>
       </c>
       <c r="C46" t="n">
-        <v>14000054</v>
+        <v>14000050</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ITCH00013</t>
+          <t>ITCH00014</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
         <v>15000001</v>
       </c>
       <c r="C47" t="n">
-        <v>14000055</v>
+        <v>14000051</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ITCH00014</t>
+          <t>ITCH00015</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
         <v>15000001</v>
       </c>
       <c r="C48" t="n">
-        <v>14000056</v>
+        <v>14000052</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ITCH00015</t>
+          <t>ITCH00016</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
         <v>15000001</v>
       </c>
       <c r="C49" t="n">
-        <v>14000057</v>
+        <v>14000053</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ITCH00016</t>
+          <t>ITCH00017</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
         <v>15000001</v>
       </c>
       <c r="C50" t="n">
-        <v>14000058</v>
+        <v>14000054</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ITCH00017</t>
+          <t>ITCH00018</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         <v>15000001</v>
       </c>
       <c r="C51" t="n">
-        <v>14000059</v>
+        <v>14000055</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ITCH00018</t>
+          <t>ITCH00019</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>15000001</v>
       </c>
       <c r="C52" t="n">
-        <v>14000060</v>
+        <v>14000056</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ITCH00019</t>
+          <t>ITCH00020</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
         <v>15000001</v>
       </c>
       <c r="C53" t="n">
-        <v>14000061</v>
+        <v>14000057</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ITCH00020</t>
+          <t>ITCH00021</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>15000001</v>
       </c>
       <c r="C54" t="n">
-        <v>14000062</v>
+        <v>14000058</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ITCH00021</t>
+          <t>ITCH00022</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
         <v>15000001</v>
       </c>
       <c r="C55" t="n">
-        <v>14000063</v>
+        <v>14000059</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ITCH00022</t>
+          <t>ITCH00023</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>15000001</v>
       </c>
       <c r="C56" t="n">
-        <v>14000064</v>
+        <v>14000060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ITCH00023</t>
+          <t>ITCH00024</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
         <v>15000001</v>
       </c>
       <c r="C57" t="n">
-        <v>14000065</v>
+        <v>14000061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ITCH00024</t>
+          <t>ITCH00025</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         <v>15000001</v>
       </c>
       <c r="C58" t="n">
-        <v>14000066</v>
+        <v>14000063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ITCH00025</t>
+          <t>ITCH00026</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
         <v>15000001</v>
       </c>
       <c r="C59" t="n">
-        <v>14000068</v>
+        <v>14000064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ITCH00026</t>
+          <t>ITCH00027</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
         <v>15000001</v>
       </c>
       <c r="C60" t="n">
-        <v>14000069</v>
+        <v>14000066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ITCH00027</t>
+          <t>ITCH00028</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>15000001</v>
       </c>
       <c r="C61" t="n">
-        <v>14000071</v>
+        <v>14000068</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ITCH00028</t>
+          <t>ITCH00029</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
         <v>15000001</v>
       </c>
       <c r="C62" t="n">
-        <v>14000073</v>
+        <v>14000069</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ITCH00029</t>
+          <t>ITCH00030</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
         <v>15000001</v>
       </c>
       <c r="C63" t="n">
-        <v>14000074</v>
+        <v>14000070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ITCH00030</t>
+          <t>ITCH00031</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>15000001</v>
       </c>
       <c r="C64" t="n">
-        <v>14000075</v>
+        <v>14000071</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ITCH00031</t>
+          <t>ITCH00032</t>
         </is>
       </c>
     </row>
@@ -1719,14 +1719,98 @@
         <v>15000001</v>
       </c>
       <c r="C65" t="n">
+        <v>14000072</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ITCH00033</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>15000001</v>
+      </c>
+      <c r="C66" t="n">
+        <v>14000073</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ITCH00034</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>15000001</v>
+      </c>
+      <c r="C67" t="n">
+        <v>14000074</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ITCH00035</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>15000001</v>
+      </c>
+      <c r="C68" t="n">
+        <v>14000075</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ITCH00036</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>15000001</v>
+      </c>
+      <c r="C69" t="n">
         <v>14000076</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>show</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>ITCH00040</t>
         </is>
